--- a/1-regression-analysis-and-predictive-models/linear-regression/mpg-dummy.xlsx
+++ b/1-regression-analysis-and-predictive-models/linear-regression/mpg-dummy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\linear-regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\1-regression-analysis-and-predictive-models\linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E212E0F-5B88-42B2-9435-98E3EFC5353D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474BB50A-C33F-4A37-A16D-4B6F5C035EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auto-mpg" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="326">
   <si>
     <t>mpg</t>
   </si>
@@ -1003,6 +1003,21 @@
   </si>
   <si>
     <t>origin_usa</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>mpg_pred</t>
   </si>
 </sst>
 </file>
@@ -1850,9 +1865,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1910,7 +1925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1939,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1968,7 +1983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>17</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>15</v>
       </c>
@@ -2055,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2084,7 +2099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2113,7 +2128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2142,7 +2157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>15</v>
       </c>
@@ -2171,7 +2186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2200,7 +2215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2258,7 +2273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>24</v>
       </c>
@@ -2316,7 +2331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>22</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2403,7 +2418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>27</v>
       </c>
@@ -2432,7 +2447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2461,7 +2476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2519,7 +2534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2664,7 +2679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2693,7 +2708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2751,7 +2766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2780,7 +2795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2809,7 +2824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2838,7 +2853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2867,7 +2882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2896,7 +2911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2925,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2954,7 +2969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2983,7 +2998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>14</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>14</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>14</v>
       </c>
@@ -3070,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>14</v>
       </c>
@@ -3099,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>12</v>
       </c>
@@ -3128,7 +3143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>13</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>13</v>
       </c>
@@ -3186,7 +3201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>18</v>
       </c>
@@ -3215,7 +3230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>22</v>
       </c>
@@ -3244,7 +3259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>19</v>
       </c>
@@ -3273,7 +3288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>18</v>
       </c>
@@ -3302,7 +3317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>23</v>
       </c>
@@ -3331,7 +3346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>28</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>30</v>
       </c>
@@ -3389,7 +3404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>30</v>
       </c>
@@ -3418,7 +3433,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>31</v>
       </c>
@@ -3447,7 +3462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>35</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>27</v>
       </c>
@@ -3505,7 +3520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3534,7 +3549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3563,7 +3578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3592,7 +3607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3621,7 +3636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3650,7 +3665,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3708,7 +3723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3737,7 +3752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3795,7 +3810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3824,7 +3839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3882,7 +3897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3911,7 +3926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3969,7 +3984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>13</v>
       </c>
@@ -4027,7 +4042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>13</v>
       </c>
@@ -4056,7 +4071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>14</v>
       </c>
@@ -4085,7 +4100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>18</v>
       </c>
@@ -4114,7 +4129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>22</v>
       </c>
@@ -4143,7 +4158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>21</v>
       </c>
@@ -4172,7 +4187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>26</v>
       </c>
@@ -4201,7 +4216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>22</v>
       </c>
@@ -4230,7 +4245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>28</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>23</v>
       </c>
@@ -4288,7 +4303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>28</v>
       </c>
@@ -4317,7 +4332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>27</v>
       </c>
@@ -4346,7 +4361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>13</v>
       </c>
@@ -4375,7 +4390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>14</v>
       </c>
@@ -4404,7 +4419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>13</v>
       </c>
@@ -4433,7 +4448,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>14</v>
       </c>
@@ -4462,7 +4477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>15</v>
       </c>
@@ -4491,7 +4506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>12</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>13</v>
       </c>
@@ -4549,7 +4564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4578,7 +4593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4607,7 +4622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4636,7 +4651,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4665,7 +4680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4694,7 +4709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4723,7 +4738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4752,7 +4767,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4810,7 +4825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4839,7 +4854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4868,7 +4883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4897,7 +4912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4926,7 +4941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>18</v>
       </c>
@@ -5013,7 +5028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>20</v>
       </c>
@@ -5042,7 +5057,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>21</v>
       </c>
@@ -5071,7 +5086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>22</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>18</v>
       </c>
@@ -5129,7 +5144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>19</v>
       </c>
@@ -5158,7 +5173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>21</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>26</v>
       </c>
@@ -5216,7 +5231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>15</v>
       </c>
@@ -5245,7 +5260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>16</v>
       </c>
@@ -5274,7 +5289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>29</v>
       </c>
@@ -5303,7 +5318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>24</v>
       </c>
@@ -5332,7 +5347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>20</v>
       </c>
@@ -5361,7 +5376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>19</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>15</v>
       </c>
@@ -5419,7 +5434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>24</v>
       </c>
@@ -5448,7 +5463,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>20</v>
       </c>
@@ -5477,7 +5492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>11</v>
       </c>
@@ -5506,7 +5521,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>20</v>
       </c>
@@ -5535,7 +5550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>21</v>
       </c>
@@ -5564,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>19</v>
       </c>
@@ -5593,7 +5608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>15</v>
       </c>
@@ -5622,7 +5637,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>31</v>
       </c>
@@ -5651,7 +5666,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>26</v>
       </c>
@@ -5680,7 +5695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>32</v>
       </c>
@@ -5709,7 +5724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>25</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>16</v>
       </c>
@@ -5767,7 +5782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5796,7 +5811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5825,7 +5840,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5854,7 +5869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5883,7 +5898,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5912,7 +5927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5941,7 +5956,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5970,7 +5985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5999,7 +6014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>26</v>
       </c>
@@ -6028,7 +6043,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>26</v>
       </c>
@@ -6057,7 +6072,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>31</v>
       </c>
@@ -6086,7 +6101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>32</v>
       </c>
@@ -6115,7 +6130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>28</v>
       </c>
@@ -6144,7 +6159,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>24</v>
       </c>
@@ -6173,7 +6188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>26</v>
       </c>
@@ -6202,7 +6217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>24</v>
       </c>
@@ -6231,7 +6246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>26</v>
       </c>
@@ -6260,7 +6275,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>31</v>
       </c>
@@ -6289,7 +6304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>19</v>
       </c>
@@ -6318,7 +6333,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>18</v>
       </c>
@@ -6347,7 +6362,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>15</v>
       </c>
@@ -6376,7 +6391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>15</v>
       </c>
@@ -6405,7 +6420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>16</v>
       </c>
@@ -6434,7 +6449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>15</v>
       </c>
@@ -6463,7 +6478,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>16</v>
       </c>
@@ -6492,7 +6507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>14</v>
       </c>
@@ -6521,7 +6536,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>17</v>
       </c>
@@ -6550,7 +6565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>16</v>
       </c>
@@ -6579,7 +6594,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>15</v>
       </c>
@@ -6608,7 +6623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>18</v>
       </c>
@@ -6637,7 +6652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>21</v>
       </c>
@@ -6666,7 +6681,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>20</v>
       </c>
@@ -6695,7 +6710,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6724,7 +6739,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>29</v>
       </c>
@@ -6753,7 +6768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>23</v>
       </c>
@@ -6782,7 +6797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>20</v>
       </c>
@@ -6811,7 +6826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>23</v>
       </c>
@@ -6840,7 +6855,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>24</v>
       </c>
@@ -6869,7 +6884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>25</v>
       </c>
@@ -6898,7 +6913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6927,7 +6942,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6956,7 +6971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6985,7 +7000,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>19</v>
       </c>
@@ -7014,7 +7029,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>23</v>
       </c>
@@ -7043,7 +7058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>23</v>
       </c>
@@ -7072,7 +7087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>22</v>
       </c>
@@ -7101,7 +7116,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>25</v>
       </c>
@@ -7130,7 +7145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>33</v>
       </c>
@@ -7159,7 +7174,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>28</v>
       </c>
@@ -7188,7 +7203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>25</v>
       </c>
@@ -7217,7 +7232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>25</v>
       </c>
@@ -7246,7 +7261,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>26</v>
       </c>
@@ -7275,7 +7290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>27</v>
       </c>
@@ -7304,7 +7319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -7333,7 +7348,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>16</v>
       </c>
@@ -7362,7 +7377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -7391,7 +7406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -7420,7 +7435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>22</v>
       </c>
@@ -7449,7 +7464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>22</v>
       </c>
@@ -7478,7 +7493,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>24</v>
       </c>
@@ -7507,7 +7522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -7536,7 +7551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>29</v>
       </c>
@@ -7565,7 +7580,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -7594,7 +7609,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>29</v>
       </c>
@@ -7623,7 +7638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>33</v>
       </c>
@@ -7652,7 +7667,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>20</v>
       </c>
@@ -7681,7 +7696,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>18</v>
       </c>
@@ -7710,7 +7725,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -7739,7 +7754,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -7768,7 +7783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -7797,7 +7812,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>32</v>
       </c>
@@ -7826,7 +7841,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>28</v>
       </c>
@@ -7855,7 +7870,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -7884,7 +7899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>20</v>
       </c>
@@ -7913,7 +7928,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>13</v>
       </c>
@@ -7942,7 +7957,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>19</v>
       </c>
@@ -7971,7 +7986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>19</v>
       </c>
@@ -8000,7 +8015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -8029,7 +8044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -8058,7 +8073,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>13</v>
       </c>
@@ -8087,7 +8102,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>13</v>
       </c>
@@ -8116,7 +8131,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>13</v>
       </c>
@@ -8145,7 +8160,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -8174,7 +8189,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>30</v>
       </c>
@@ -8203,7 +8218,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>36</v>
       </c>
@@ -8232,7 +8247,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -8261,7 +8276,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -8290,7 +8305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -8319,7 +8334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>17</v>
       </c>
@@ -8348,7 +8363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -8377,7 +8392,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>15</v>
       </c>
@@ -8406,7 +8421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -8435,7 +8450,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -8464,7 +8479,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>19</v>
       </c>
@@ -8493,7 +8508,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -8522,7 +8537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>16</v>
       </c>
@@ -8551,7 +8566,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -8580,7 +8595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -8609,7 +8624,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>16</v>
       </c>
@@ -8638,7 +8653,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>29</v>
       </c>
@@ -8667,7 +8682,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -8696,7 +8711,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>26</v>
       </c>
@@ -8725,7 +8740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -8754,7 +8769,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -8783,7 +8798,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -8812,7 +8827,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>30</v>
       </c>
@@ -8841,7 +8856,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -8870,7 +8885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>22</v>
       </c>
@@ -8899,7 +8914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -8928,7 +8943,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -8957,7 +8972,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -8986,7 +9001,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -9015,7 +9030,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -9044,7 +9059,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -9073,7 +9088,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -9102,7 +9117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -9131,7 +9146,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -9160,7 +9175,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -9189,7 +9204,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -9218,7 +9233,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -9247,7 +9262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -9276,7 +9291,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -9305,7 +9320,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -9334,7 +9349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -9363,7 +9378,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -9392,7 +9407,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -9421,7 +9436,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -9450,7 +9465,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -9479,7 +9494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -9508,7 +9523,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -9537,7 +9552,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -9566,7 +9581,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -9595,7 +9610,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>30</v>
       </c>
@@ -9624,7 +9639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -9653,7 +9668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -9682,7 +9697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -9711,7 +9726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -9740,7 +9755,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -9769,7 +9784,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -9798,7 +9813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -9827,7 +9842,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -9856,7 +9871,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>17</v>
       </c>
@@ -9885,7 +9900,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -9914,7 +9929,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -9943,7 +9958,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -9972,7 +9987,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -10001,7 +10016,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -10030,7 +10045,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -10059,7 +10074,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -10088,7 +10103,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -10117,7 +10132,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -10146,7 +10161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>17</v>
       </c>
@@ -10175,7 +10190,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -10204,7 +10219,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -10233,7 +10248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -10262,7 +10277,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -10291,7 +10306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -10320,7 +10335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -10349,7 +10364,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -10378,7 +10393,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -10407,7 +10422,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -10436,7 +10451,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -10465,7 +10480,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -10494,7 +10509,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -10523,7 +10538,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>23</v>
       </c>
@@ -10552,7 +10567,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -10581,7 +10596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -10610,7 +10625,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -10639,7 +10654,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -10668,7 +10683,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -10697,7 +10712,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -10726,7 +10741,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -10755,7 +10770,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -10784,7 +10799,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -10813,7 +10828,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -10842,7 +10857,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -10871,7 +10886,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -10900,7 +10915,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -10929,7 +10944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -10958,7 +10973,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>28</v>
       </c>
@@ -10987,7 +11002,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -11016,7 +11031,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -11045,7 +11060,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -11074,7 +11089,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -11103,7 +11118,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -11132,7 +11147,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -11161,7 +11176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>37</v>
       </c>
@@ -11190,7 +11205,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -11219,7 +11234,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -11248,7 +11263,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -11277,7 +11292,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -11306,7 +11321,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -11335,7 +11350,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -11364,7 +11379,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -11393,7 +11408,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>30</v>
       </c>
@@ -11422,7 +11437,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -11451,7 +11466,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -11480,7 +11495,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -11509,7 +11524,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -11538,7 +11553,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -11567,7 +11582,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -11596,7 +11611,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>35</v>
       </c>
@@ -11625,7 +11640,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -11654,7 +11669,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -11683,7 +11698,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -11712,7 +11727,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -11741,7 +11756,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -11770,7 +11785,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -11799,7 +11814,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>30</v>
       </c>
@@ -11828,7 +11843,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -11857,7 +11872,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>39</v>
       </c>
@@ -11886,7 +11901,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -11915,7 +11930,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -11944,7 +11959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>37</v>
       </c>
@@ -11973,7 +11988,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -12002,7 +12017,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -12031,7 +12046,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -12060,7 +12075,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -12089,7 +12104,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -12118,7 +12133,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>33</v>
       </c>
@@ -12147,7 +12162,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -12176,7 +12191,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -12205,7 +12220,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -12234,7 +12249,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -12263,7 +12278,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -12292,7 +12307,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -12321,7 +12336,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -12350,7 +12365,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -12379,7 +12394,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -12408,7 +12423,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -12437,7 +12452,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -12466,7 +12481,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -12495,7 +12510,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -12524,7 +12539,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>28</v>
       </c>
@@ -12553,7 +12568,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>27</v>
       </c>
@@ -12582,7 +12597,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>34</v>
       </c>
@@ -12611,7 +12626,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>31</v>
       </c>
@@ -12640,7 +12655,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>29</v>
       </c>
@@ -12669,7 +12684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>27</v>
       </c>
@@ -12698,7 +12713,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>24</v>
       </c>
@@ -12727,7 +12742,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>23</v>
       </c>
@@ -12756,7 +12771,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>36</v>
       </c>
@@ -12785,7 +12800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>37</v>
       </c>
@@ -12814,7 +12829,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>31</v>
       </c>
@@ -12843,7 +12858,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>38</v>
       </c>
@@ -12872,7 +12887,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>36</v>
       </c>
@@ -12901,7 +12916,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>36</v>
       </c>
@@ -12930,7 +12945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>36</v>
       </c>
@@ -12959,7 +12974,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>34</v>
       </c>
@@ -12988,7 +13003,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>38</v>
       </c>
@@ -13017,7 +13032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>32</v>
       </c>
@@ -13046,7 +13061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>38</v>
       </c>
@@ -13075,7 +13090,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>25</v>
       </c>
@@ -13104,7 +13119,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>38</v>
       </c>
@@ -13133,7 +13148,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>26</v>
       </c>
@@ -13162,7 +13177,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>22</v>
       </c>
@@ -13191,7 +13206,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>32</v>
       </c>
@@ -13220,7 +13235,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>36</v>
       </c>
@@ -13249,7 +13264,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>27</v>
       </c>
@@ -13278,7 +13293,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>27</v>
       </c>
@@ -13307,7 +13322,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>44</v>
       </c>
@@ -13336,7 +13351,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>32</v>
       </c>
@@ -13365,7 +13380,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>28</v>
       </c>
@@ -13394,7 +13409,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>31</v>
       </c>
@@ -13430,41 +13445,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I400"/>
+  <dimension ref="A1:S400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5859375" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="7.1171875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9.1171875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5859375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.1171875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.29296875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="34.87890625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="9" width="9.1171875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.1171875" customWidth="1"/>
+    <col min="11" max="11" width="16.46875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.17578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.3515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C3),"")</f>
-        <v/>
-      </c>
-      <c r="D1" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(D3),"")</f>
-        <v/>
-      </c>
-      <c r="E1" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.FORMULATEXT(E3),"")</f>
-        <v/>
-      </c>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13486,8 +13499,20 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>319</v>
+      </c>
+      <c r="R2" t="s">
+        <v>318</v>
+      </c>
+      <c r="S2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>18</v>
       </c>
@@ -13500,8 +13525,14 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>15</v>
       </c>
@@ -13514,8 +13545,14 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>322</v>
+      </c>
+      <c r="P4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>18</v>
       </c>
@@ -13528,8 +13565,14 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>16</v>
       </c>
@@ -13543,7 +13586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>17</v>
       </c>
@@ -13557,7 +13600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>15</v>
       </c>
@@ -13571,7 +13614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>14</v>
       </c>
@@ -13585,7 +13628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>14</v>
       </c>
@@ -13599,7 +13642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>14</v>
       </c>
@@ -13613,7 +13656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>15</v>
       </c>
@@ -13627,7 +13670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>15</v>
       </c>
@@ -13641,7 +13684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>14</v>
       </c>
@@ -13655,7 +13698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>15</v>
       </c>
@@ -13669,7 +13712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -13683,7 +13726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>24</v>
       </c>
@@ -13697,7 +13740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>22</v>
       </c>
@@ -13711,7 +13754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13725,7 +13768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>21</v>
       </c>
@@ -13739,7 +13782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>27</v>
       </c>
@@ -13753,7 +13796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>26</v>
       </c>
@@ -13767,7 +13810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>25</v>
       </c>
@@ -13781,7 +13824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>24</v>
       </c>
@@ -13795,7 +13838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>25</v>
       </c>
@@ -13809,7 +13852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>26</v>
       </c>
@@ -13823,7 +13866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>21</v>
       </c>
@@ -13837,7 +13880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>10</v>
       </c>
@@ -13851,7 +13894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>10</v>
       </c>
@@ -13865,7 +13908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>11</v>
       </c>
@@ -13879,7 +13922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>9</v>
       </c>
@@ -13893,7 +13936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>27</v>
       </c>
@@ -13907,7 +13950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>28</v>
       </c>
@@ -13921,7 +13964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>25</v>
       </c>
@@ -13935,7 +13978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>25</v>
       </c>
@@ -13949,7 +13992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>19</v>
       </c>
@@ -13963,7 +14006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>16</v>
       </c>
@@ -13977,7 +14020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>17</v>
       </c>
@@ -13991,7 +14034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>19</v>
       </c>
@@ -14005,7 +14048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>18</v>
       </c>
@@ -14019,7 +14062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>14</v>
       </c>
@@ -14033,7 +14076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>14</v>
       </c>
@@ -14047,7 +14090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>14</v>
       </c>
@@ -14061,7 +14104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>14</v>
       </c>
@@ -14075,7 +14118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>12</v>
       </c>
@@ -14089,7 +14132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>13</v>
       </c>
@@ -14103,7 +14146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>13</v>
       </c>
@@ -14117,7 +14160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>18</v>
       </c>
@@ -14131,7 +14174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>22</v>
       </c>
@@ -14145,7 +14188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>19</v>
       </c>
@@ -14159,7 +14202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>18</v>
       </c>
@@ -14173,7 +14216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>23</v>
       </c>
@@ -14187,7 +14230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>28</v>
       </c>
@@ -14201,7 +14244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>30</v>
       </c>
@@ -14215,7 +14258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>30</v>
       </c>
@@ -14229,7 +14272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>31</v>
       </c>
@@ -14243,7 +14286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>35</v>
       </c>
@@ -14257,7 +14300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>27</v>
       </c>
@@ -14271,7 +14314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>26</v>
       </c>
@@ -14285,7 +14328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>24</v>
       </c>
@@ -14299,7 +14342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>25</v>
       </c>
@@ -14313,7 +14356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>23</v>
       </c>
@@ -14327,7 +14370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>20</v>
       </c>
@@ -14341,7 +14384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>21</v>
       </c>
@@ -14355,7 +14398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>13</v>
       </c>
@@ -14369,7 +14412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>14</v>
       </c>
@@ -14383,7 +14426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>15</v>
       </c>
@@ -14397,7 +14440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>14</v>
       </c>
@@ -14411,7 +14454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>17</v>
       </c>
@@ -14425,7 +14468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>11</v>
       </c>
@@ -14439,7 +14482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>13</v>
       </c>
@@ -14453,7 +14496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>12</v>
       </c>
@@ -14467,7 +14510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>13</v>
       </c>
@@ -14481,7 +14524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>19</v>
       </c>
@@ -14495,7 +14538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>15</v>
       </c>
@@ -14509,7 +14552,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>13</v>
       </c>
@@ -14523,7 +14566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>13</v>
       </c>
@@ -14537,7 +14580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>14</v>
       </c>
@@ -14551,7 +14594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>18</v>
       </c>
@@ -14565,7 +14608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>22</v>
       </c>
@@ -14579,7 +14622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>21</v>
       </c>
@@ -14593,7 +14636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>26</v>
       </c>
@@ -14607,7 +14650,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>22</v>
       </c>
@@ -14621,7 +14664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>28</v>
       </c>
@@ -14635,7 +14678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>23</v>
       </c>
@@ -14649,7 +14692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>28</v>
       </c>
@@ -14663,7 +14706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>27</v>
       </c>
@@ -14677,7 +14720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>13</v>
       </c>
@@ -14691,7 +14734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>14</v>
       </c>
@@ -14705,7 +14748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>13</v>
       </c>
@@ -14719,7 +14762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>14</v>
       </c>
@@ -14733,7 +14776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>15</v>
       </c>
@@ -14747,7 +14790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>12</v>
       </c>
@@ -14761,7 +14804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>13</v>
       </c>
@@ -14775,7 +14818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>13</v>
       </c>
@@ -14789,7 +14832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>14</v>
       </c>
@@ -14803,7 +14846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>13</v>
       </c>
@@ -14817,7 +14860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>12</v>
       </c>
@@ -14831,7 +14874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>13</v>
       </c>
@@ -14845,7 +14888,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>18</v>
       </c>
@@ -14859,7 +14902,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>16</v>
       </c>
@@ -14873,7 +14916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>18</v>
       </c>
@@ -14887,7 +14930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>18</v>
       </c>
@@ -14901,7 +14944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>23</v>
       </c>
@@ -14915,7 +14958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>26</v>
       </c>
@@ -14929,7 +14972,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>11</v>
       </c>
@@ -14943,7 +14986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>12</v>
       </c>
@@ -14957,7 +15000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>13</v>
       </c>
@@ -14971,7 +15014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>12</v>
       </c>
@@ -14985,7 +15028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>18</v>
       </c>
@@ -14999,7 +15042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>20</v>
       </c>
@@ -15013,7 +15056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>21</v>
       </c>
@@ -15027,7 +15070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>22</v>
       </c>
@@ -15041,7 +15084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>18</v>
       </c>
@@ -15055,7 +15098,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>19</v>
       </c>
@@ -15069,7 +15112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>21</v>
       </c>
@@ -15083,7 +15126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>26</v>
       </c>
@@ -15097,7 +15140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>15</v>
       </c>
@@ -15111,7 +15154,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>16</v>
       </c>
@@ -15125,7 +15168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>29</v>
       </c>
@@ -15139,7 +15182,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>24</v>
       </c>
@@ -15153,7 +15196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>20</v>
       </c>
@@ -15167,7 +15210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>19</v>
       </c>
@@ -15181,7 +15224,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>15</v>
       </c>
@@ -15195,7 +15238,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>24</v>
       </c>
@@ -15209,7 +15252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>20</v>
       </c>
@@ -15223,7 +15266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>11</v>
       </c>
@@ -15237,7 +15280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>20</v>
       </c>
@@ -15251,7 +15294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>21</v>
       </c>
@@ -15265,7 +15308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>19</v>
       </c>
@@ -15279,7 +15322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>15</v>
       </c>
@@ -15293,7 +15336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>31</v>
       </c>
@@ -15307,7 +15350,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>26</v>
       </c>
@@ -15321,7 +15364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>32</v>
       </c>
@@ -15335,7 +15378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>25</v>
       </c>
@@ -15349,7 +15392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>16</v>
       </c>
@@ -15363,7 +15406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>16</v>
       </c>
@@ -15377,7 +15420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>18</v>
       </c>
@@ -15391,7 +15434,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>16</v>
       </c>
@@ -15405,7 +15448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>13</v>
       </c>
@@ -15419,7 +15462,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>14</v>
       </c>
@@ -15433,7 +15476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>14</v>
       </c>
@@ -15447,7 +15490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>14</v>
       </c>
@@ -15461,7 +15504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>29</v>
       </c>
@@ -15475,7 +15518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>26</v>
       </c>
@@ -15489,7 +15532,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>26</v>
       </c>
@@ -15503,7 +15546,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>31</v>
       </c>
@@ -15517,7 +15560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>32</v>
       </c>
@@ -15531,7 +15574,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>28</v>
       </c>
@@ -15545,7 +15588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>24</v>
       </c>
@@ -15559,7 +15602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>26</v>
       </c>
@@ -15573,7 +15616,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>24</v>
       </c>
@@ -15587,7 +15630,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>26</v>
       </c>
@@ -15601,7 +15644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>31</v>
       </c>
@@ -15615,7 +15658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>19</v>
       </c>
@@ -15629,7 +15672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>18</v>
       </c>
@@ -15643,7 +15686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>15</v>
       </c>
@@ -15657,7 +15700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>15</v>
       </c>
@@ -15671,7 +15714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>16</v>
       </c>
@@ -15685,7 +15728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>15</v>
       </c>
@@ -15699,7 +15742,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>16</v>
       </c>
@@ -15713,7 +15756,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>14</v>
       </c>
@@ -15727,7 +15770,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>17</v>
       </c>
@@ -15741,7 +15784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>16</v>
       </c>
@@ -15755,7 +15798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>15</v>
       </c>
@@ -15769,7 +15812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>18</v>
       </c>
@@ -15783,7 +15826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>21</v>
       </c>
@@ -15797,7 +15840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>20</v>
       </c>
@@ -15811,7 +15854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>13</v>
       </c>
@@ -15825,7 +15868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>29</v>
       </c>
@@ -15839,7 +15882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>23</v>
       </c>
@@ -15853,7 +15896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>20</v>
       </c>
@@ -15867,7 +15910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>23</v>
       </c>
@@ -15881,7 +15924,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>24</v>
       </c>
@@ -15895,7 +15938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>25</v>
       </c>
@@ -15909,7 +15952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>24</v>
       </c>
@@ -15923,7 +15966,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>18</v>
       </c>
@@ -15937,7 +15980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>29</v>
       </c>
@@ -15951,7 +15994,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>19</v>
       </c>
@@ -15965,7 +16008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>23</v>
       </c>
@@ -15979,7 +16022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>23</v>
       </c>
@@ -15993,7 +16036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>22</v>
       </c>
@@ -16007,7 +16050,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>25</v>
       </c>
@@ -16021,7 +16064,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>33</v>
       </c>
@@ -16035,7 +16078,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>28</v>
       </c>
@@ -16049,7 +16092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>25</v>
       </c>
@@ -16063,7 +16106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>25</v>
       </c>
@@ -16077,7 +16120,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>26</v>
       </c>
@@ -16091,7 +16134,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>27</v>
       </c>
@@ -16105,7 +16148,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>17.5</v>
       </c>
@@ -16119,7 +16162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>16</v>
       </c>
@@ -16133,7 +16176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>15.5</v>
       </c>
@@ -16147,7 +16190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>14.5</v>
       </c>
@@ -16161,7 +16204,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>22</v>
       </c>
@@ -16175,7 +16218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>22</v>
       </c>
@@ -16189,7 +16232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>24</v>
       </c>
@@ -16203,7 +16246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>22.5</v>
       </c>
@@ -16217,7 +16260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>29</v>
       </c>
@@ -16231,7 +16274,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>24.5</v>
       </c>
@@ -16245,7 +16288,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>29</v>
       </c>
@@ -16259,7 +16302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>33</v>
       </c>
@@ -16273,7 +16316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>20</v>
       </c>
@@ -16287,7 +16330,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>18</v>
       </c>
@@ -16301,7 +16344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>18.5</v>
       </c>
@@ -16315,7 +16358,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>17.5</v>
       </c>
@@ -16329,7 +16372,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>29.5</v>
       </c>
@@ -16343,7 +16386,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>32</v>
       </c>
@@ -16357,7 +16400,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>28</v>
       </c>
@@ -16371,7 +16414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>26.5</v>
       </c>
@@ -16385,7 +16428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>20</v>
       </c>
@@ -16399,7 +16442,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>13</v>
       </c>
@@ -16413,7 +16456,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>19</v>
       </c>
@@ -16427,7 +16470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>19</v>
       </c>
@@ -16441,7 +16484,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -16455,7 +16498,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>16.5</v>
       </c>
@@ -16469,7 +16512,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>13</v>
       </c>
@@ -16483,7 +16526,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>13</v>
       </c>
@@ -16497,7 +16540,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>13</v>
       </c>
@@ -16511,7 +16554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>31.5</v>
       </c>
@@ -16525,7 +16568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>30</v>
       </c>
@@ -16539,7 +16582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>36</v>
       </c>
@@ -16553,7 +16596,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>25.5</v>
       </c>
@@ -16567,7 +16610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>33.5</v>
       </c>
@@ -16581,7 +16624,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>17.5</v>
       </c>
@@ -16595,7 +16638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>17</v>
       </c>
@@ -16609,7 +16652,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>15.5</v>
       </c>
@@ -16623,7 +16666,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>15</v>
       </c>
@@ -16637,7 +16680,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>17.5</v>
       </c>
@@ -16651,7 +16694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>20.5</v>
       </c>
@@ -16665,7 +16708,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>19</v>
       </c>
@@ -16679,7 +16722,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>18.5</v>
       </c>
@@ -16693,7 +16736,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>16</v>
       </c>
@@ -16707,7 +16750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -16721,7 +16764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>15.5</v>
       </c>
@@ -16735,7 +16778,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>16</v>
       </c>
@@ -16749,7 +16792,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>29</v>
       </c>
@@ -16763,7 +16806,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>24.5</v>
       </c>
@@ -16777,7 +16820,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>26</v>
       </c>
@@ -16791,7 +16834,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>25.5</v>
       </c>
@@ -16805,7 +16848,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>30.5</v>
       </c>
@@ -16819,7 +16862,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>33.5</v>
       </c>
@@ -16833,7 +16876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>30</v>
       </c>
@@ -16847,7 +16890,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>30.5</v>
       </c>
@@ -16861,7 +16904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>22</v>
       </c>
@@ -16875,7 +16918,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -16889,7 +16932,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>21.5</v>
       </c>
@@ -16903,7 +16946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>43.1</v>
       </c>
@@ -16917,7 +16960,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>36.1</v>
       </c>
@@ -16931,7 +16974,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>32.799999999999997</v>
       </c>
@@ -16945,7 +16988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>39.4</v>
       </c>
@@ -16959,7 +17002,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>36.1</v>
       </c>
@@ -16973,7 +17016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>19.899999999999999</v>
       </c>
@@ -16987,7 +17030,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>19.399999999999999</v>
       </c>
@@ -17001,7 +17044,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>20.2</v>
       </c>
@@ -17015,7 +17058,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>19.2</v>
       </c>
@@ -17029,7 +17072,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>20.5</v>
       </c>
@@ -17043,7 +17086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>20.2</v>
       </c>
@@ -17057,7 +17100,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>25.1</v>
       </c>
@@ -17071,7 +17114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>20.5</v>
       </c>
@@ -17085,7 +17128,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>19.399999999999999</v>
       </c>
@@ -17099,7 +17142,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>20.6</v>
       </c>
@@ -17113,7 +17156,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>20.8</v>
       </c>
@@ -17127,7 +17170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>18.600000000000001</v>
       </c>
@@ -17141,7 +17184,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>18.100000000000001</v>
       </c>
@@ -17155,7 +17198,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>19.2</v>
       </c>
@@ -17169,7 +17212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>17.7</v>
       </c>
@@ -17183,7 +17226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>18.100000000000001</v>
       </c>
@@ -17197,7 +17240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>17.5</v>
       </c>
@@ -17211,7 +17254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>30</v>
       </c>
@@ -17225,7 +17268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>27.5</v>
       </c>
@@ -17239,7 +17282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>27.2</v>
       </c>
@@ -17253,7 +17296,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>30.9</v>
       </c>
@@ -17267,7 +17310,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>21.1</v>
       </c>
@@ -17281,7 +17324,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>23.2</v>
       </c>
@@ -17295,7 +17338,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>23.8</v>
       </c>
@@ -17309,7 +17352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>23.9</v>
       </c>
@@ -17323,7 +17366,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>20.3</v>
       </c>
@@ -17337,7 +17380,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>17</v>
       </c>
@@ -17351,7 +17394,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>21.6</v>
       </c>
@@ -17365,7 +17408,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>16.2</v>
       </c>
@@ -17379,7 +17422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>31.5</v>
       </c>
@@ -17393,7 +17436,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>29.5</v>
       </c>
@@ -17407,7 +17450,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>21.5</v>
       </c>
@@ -17421,7 +17464,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>19.8</v>
       </c>
@@ -17435,7 +17478,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>22.3</v>
       </c>
@@ -17449,7 +17492,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>20.2</v>
       </c>
@@ -17463,7 +17506,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>20.6</v>
       </c>
@@ -17477,7 +17520,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>17</v>
       </c>
@@ -17491,7 +17534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>17.600000000000001</v>
       </c>
@@ -17505,7 +17548,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>16.5</v>
       </c>
@@ -17519,7 +17562,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>18.2</v>
       </c>
@@ -17533,7 +17576,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>16.899999999999999</v>
       </c>
@@ -17547,7 +17590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>15.5</v>
       </c>
@@ -17561,7 +17604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>19.2</v>
       </c>
@@ -17575,7 +17618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>18.5</v>
       </c>
@@ -17589,7 +17632,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>31.9</v>
       </c>
@@ -17603,7 +17646,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>34.1</v>
       </c>
@@ -17617,7 +17660,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>35.700000000000003</v>
       </c>
@@ -17631,7 +17674,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>27.4</v>
       </c>
@@ -17645,7 +17688,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>25.4</v>
       </c>
@@ -17659,7 +17702,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>23</v>
       </c>
@@ -17673,7 +17716,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>27.2</v>
       </c>
@@ -17687,7 +17730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>23.9</v>
       </c>
@@ -17701,7 +17744,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>34.200000000000003</v>
       </c>
@@ -17715,7 +17758,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>34.5</v>
       </c>
@@ -17729,7 +17772,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>31.8</v>
       </c>
@@ -17743,7 +17786,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>37.299999999999997</v>
       </c>
@@ -17757,7 +17800,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>28.4</v>
       </c>
@@ -17771,7 +17814,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>28.8</v>
       </c>
@@ -17785,7 +17828,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>26.8</v>
       </c>
@@ -17799,7 +17842,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>33.5</v>
       </c>
@@ -17813,7 +17856,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>41.5</v>
       </c>
@@ -17827,7 +17870,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>38.1</v>
       </c>
@@ -17841,7 +17884,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>32.1</v>
       </c>
@@ -17855,7 +17898,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>37.200000000000003</v>
       </c>
@@ -17869,7 +17912,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>28</v>
       </c>
@@ -17883,7 +17926,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>26.4</v>
       </c>
@@ -17897,7 +17940,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>24.3</v>
       </c>
@@ -17911,7 +17954,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>19.100000000000001</v>
       </c>
@@ -17925,7 +17968,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>34.299999999999997</v>
       </c>
@@ -17939,7 +17982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>29.8</v>
       </c>
@@ -17953,7 +17996,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>31.3</v>
       </c>
@@ -17967,7 +18010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>37</v>
       </c>
@@ -17981,7 +18024,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>32.200000000000003</v>
       </c>
@@ -17995,7 +18038,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>46.6</v>
       </c>
@@ -18009,7 +18052,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>27.9</v>
       </c>
@@ -18023,7 +18066,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>40.799999999999997</v>
       </c>
@@ -18037,7 +18080,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>44.3</v>
       </c>
@@ -18051,7 +18094,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>43.4</v>
       </c>
@@ -18065,7 +18108,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>36.4</v>
       </c>
@@ -18079,7 +18122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>30</v>
       </c>
@@ -18093,7 +18136,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>44.6</v>
       </c>
@@ -18107,7 +18150,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>40.9</v>
       </c>
@@ -18121,7 +18164,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>33.799999999999997</v>
       </c>
@@ -18135,7 +18178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>29.8</v>
       </c>
@@ -18149,7 +18192,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>32.700000000000003</v>
       </c>
@@ -18163,7 +18206,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>23.7</v>
       </c>
@@ -18177,7 +18220,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>35</v>
       </c>
@@ -18191,7 +18234,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>23.6</v>
       </c>
@@ -18205,7 +18248,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>32.4</v>
       </c>
@@ -18219,7 +18262,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>27.2</v>
       </c>
@@ -18233,7 +18276,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>26.6</v>
       </c>
@@ -18247,7 +18290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>25.8</v>
       </c>
@@ -18261,7 +18304,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>23.5</v>
       </c>
@@ -18275,7 +18318,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>30</v>
       </c>
@@ -18289,7 +18332,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>39.1</v>
       </c>
@@ -18303,7 +18346,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>39</v>
       </c>
@@ -18317,7 +18360,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>35.1</v>
       </c>
@@ -18331,7 +18374,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>32.299999999999997</v>
       </c>
@@ -18345,7 +18388,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>37</v>
       </c>
@@ -18359,7 +18402,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>37.700000000000003</v>
       </c>
@@ -18373,7 +18416,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>34.1</v>
       </c>
@@ -18387,7 +18430,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>34.700000000000003</v>
       </c>
@@ -18401,7 +18444,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>34.4</v>
       </c>
@@ -18415,7 +18458,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>29.9</v>
       </c>
@@ -18429,7 +18472,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>33</v>
       </c>
@@ -18443,7 +18486,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>34.5</v>
       </c>
@@ -18457,7 +18500,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>33.700000000000003</v>
       </c>
@@ -18471,7 +18514,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>32.4</v>
       </c>
@@ -18485,7 +18528,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>32.9</v>
       </c>
@@ -18499,7 +18542,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>31.6</v>
       </c>
@@ -18513,7 +18556,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>28.1</v>
       </c>
@@ -18527,7 +18570,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>30.7</v>
       </c>
@@ -18541,7 +18584,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>25.4</v>
       </c>
@@ -18555,7 +18598,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>24.2</v>
       </c>
@@ -18569,7 +18612,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>22.4</v>
       </c>
@@ -18583,7 +18626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>26.6</v>
       </c>
@@ -18597,7 +18640,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>20.2</v>
       </c>
@@ -18611,7 +18654,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>17.600000000000001</v>
       </c>
@@ -18625,7 +18668,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>28</v>
       </c>
@@ -18639,7 +18682,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>27</v>
       </c>
@@ -18653,7 +18696,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>34</v>
       </c>
@@ -18667,7 +18710,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>31</v>
       </c>
@@ -18681,7 +18724,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>29</v>
       </c>
@@ -18695,7 +18738,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>27</v>
       </c>
@@ -18709,7 +18752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>24</v>
       </c>
@@ -18723,7 +18766,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>23</v>
       </c>
@@ -18737,7 +18780,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>36</v>
       </c>
@@ -18751,7 +18794,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>37</v>
       </c>
@@ -18765,7 +18808,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>31</v>
       </c>
@@ -18779,7 +18822,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>38</v>
       </c>
@@ -18793,7 +18836,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>36</v>
       </c>
@@ -18807,7 +18850,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>36</v>
       </c>
@@ -18821,7 +18864,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>36</v>
       </c>
@@ -18835,7 +18878,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>34</v>
       </c>
@@ -18849,7 +18892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>38</v>
       </c>
@@ -18863,7 +18906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>32</v>
       </c>
@@ -18877,7 +18920,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>38</v>
       </c>
@@ -18891,7 +18934,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>25</v>
       </c>
@@ -18905,7 +18948,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>38</v>
       </c>
@@ -18919,7 +18962,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>26</v>
       </c>
@@ -18933,7 +18976,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>22</v>
       </c>
@@ -18947,7 +18990,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>32</v>
       </c>
@@ -18961,7 +19004,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>36</v>
       </c>
@@ -18975,7 +19018,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>27</v>
       </c>
@@ -18989,7 +19032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>27</v>
       </c>
@@ -19003,7 +19046,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>44</v>
       </c>
@@ -19017,7 +19060,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>32</v>
       </c>
@@ -19031,7 +19074,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>28</v>
       </c>
@@ -19045,7 +19088,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>31</v>
       </c>
